--- a/config_Release/xiaoxiaole_xy_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_xy_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>2000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>4000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>8000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>15000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>30000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -573,7 +573,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>60000</v>
+        <v>480000</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -584,7 +587,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="5">
-        <v>120000</v>
+        <v>960000</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,7 +601,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>240000</v>
+        <v>1920000</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -606,7 +615,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="5">
-        <v>480000</v>
+        <v>5120000</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -617,10 +629,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>960000</v>
+        <v>10240000</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,10 +643,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="5">
-        <v>1920000</v>
+        <v>20480000</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1071,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>

--- a/config_Release/xiaoxiaole_xy_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_xy_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>line|行号</t>
   </si>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>lv|等级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -161,7 +165,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +192,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -466,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -507,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -518,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -529,7 +536,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>30000</v>
+        <v>60000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -540,7 +550,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>60000</v>
+        <v>120000</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,7 +564,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>120000</v>
+        <v>240000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,7 +578,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>240000</v>
+        <v>480000</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -573,10 +592,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>480000</v>
+        <v>960000</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="5">
-        <v>960000</v>
+        <v>1920000</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -601,10 +620,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>1920000</v>
+        <v>5120000</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,10 +634,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="5">
-        <v>5120000</v>
+        <v>10240000</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,25 +648,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>10240000</v>
+        <v>20480000</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>20480000</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
@@ -685,47 +695,7 @@
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -868,13 +838,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -904,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>30000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -915,10 +888,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="D3" s="5">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -929,10 +902,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>60000</v>
+        <v>600000</v>
       </c>
       <c r="D4" s="5">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -943,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>120000</v>
+        <v>1800000</v>
       </c>
       <c r="D5" s="5">
-        <v>240000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -957,10 +930,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>240000</v>
-      </c>
-      <c r="D6" s="8">
-        <v>480000</v>
+        <v>3600000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>7200000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -970,11 +943,11 @@
       <c r="B7" s="8">
         <v>6</v>
       </c>
-      <c r="C7" s="8">
-        <v>480000</v>
-      </c>
-      <c r="D7" s="8">
-        <v>900000</v>
+      <c r="C7" s="5">
+        <v>7200000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14400000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -984,11 +957,11 @@
       <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="8">
-        <v>900000</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1800000</v>
+      <c r="C8" s="5">
+        <v>14400000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>28800000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -998,11 +971,11 @@
       <c r="B9" s="8">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
-        <v>1800000</v>
-      </c>
-      <c r="D9" s="8">
-        <v>3600000</v>
+      <c r="C9" s="5">
+        <v>28800000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>57600000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,11 +985,11 @@
       <c r="B10" s="8">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
-        <v>3600000</v>
-      </c>
-      <c r="D10" s="8">
-        <v>7200000</v>
+      <c r="C10" s="5">
+        <v>57600000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>115200000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1026,11 +999,11 @@
       <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C11" s="8">
-        <v>7200000</v>
-      </c>
-      <c r="D11" s="8">
-        <v>14400000</v>
+      <c r="C11" s="5">
+        <v>115200000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>307200000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1040,11 +1013,11 @@
       <c r="B12" s="8">
         <v>11</v>
       </c>
-      <c r="C12" s="8">
-        <v>14400000</v>
-      </c>
-      <c r="D12">
-        <v>28800000</v>
+      <c r="C12" s="5">
+        <v>307200000</v>
+      </c>
+      <c r="D12" s="5">
+        <v>614400000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1054,23 +1027,10 @@
       <c r="B13" s="8">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>28800000</v>
-      </c>
-      <c r="D13">
-        <v>57600000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>57600000</v>
-      </c>
+      <c r="C13" s="5">
+        <v>614400000</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1081,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,7 +1054,7 @@
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1104,71 +1064,92 @@
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>800000</v>
+        <v>8000000</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2500000</v>
+        <v>25000000</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>12500000</v>
+        <v>125000000</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>25000000</v>
+        <v>250000000</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>75000000</v>
+        <v>750000000</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3000</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>230000000</v>
+        <v>2300000000</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>100</v>
+        <v>10000</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/xiaoxiaole_xy_defen_cfg.xlsx
+++ b/config_Release/xiaoxiaole_xy_defen_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="yazhu|消消乐押注" sheetId="6" r:id="rId1"/>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>300000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -888,10 +888,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>300000</v>
+        <v>60000</v>
       </c>
       <c r="D3" s="5">
-        <v>600000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -902,10 +902,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>600000</v>
+        <v>180000</v>
       </c>
       <c r="D4" s="5">
-        <v>1800000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -916,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>1800000</v>
+        <v>360000</v>
       </c>
       <c r="D5" s="5">
-        <v>3600000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -930,10 +930,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>3600000</v>
+        <v>720000</v>
       </c>
       <c r="D6" s="5">
-        <v>7200000</v>
+        <v>1440000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -944,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>7200000</v>
+        <v>1440000</v>
       </c>
       <c r="D7" s="5">
-        <v>14400000</v>
+        <v>2880000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -958,10 +958,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>14400000</v>
+        <v>2880000</v>
       </c>
       <c r="D8" s="5">
-        <v>28800000</v>
+        <v>5760000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -972,10 +972,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>28800000</v>
+        <v>5760000</v>
       </c>
       <c r="D9" s="5">
-        <v>57600000</v>
+        <v>11520000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,10 +986,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="5">
-        <v>57600000</v>
+        <v>11520000</v>
       </c>
       <c r="D10" s="5">
-        <v>115200000</v>
+        <v>30720000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1000,10 +1000,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>115200000</v>
+        <v>30720000</v>
       </c>
       <c r="D11" s="5">
-        <v>307200000</v>
+        <v>61440000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,10 +1014,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="5">
-        <v>307200000</v>
+        <v>61440000</v>
       </c>
       <c r="D12" s="5">
-        <v>614400000</v>
+        <v>122880000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>614400000</v>
+        <v>122880000</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -1043,7 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
